--- a/task4/table.xlsx
+++ b/task4/table.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Поверхность" sheetId="1" r:id="rId1"/>
     <sheet name="Приближенное значение" sheetId="2" r:id="rId2"/>
+    <sheet name="Функция" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <r>
       <t>h</t>
@@ -133,12 +134,83 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>y\x</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,7 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,17 +302,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -265,8 +355,9 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="15"/>
+      <c:rotX val="20"/>
       <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
     </c:view3D>
     <c:floor>
@@ -332,10 +423,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -428,16 +519,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$5:$AF$5</c:f>
+              <c:f>Поверхность!$B$5:$AI$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-16.968719422671313</c:v>
                 </c:pt>
@@ -527,6 +627,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-14.964240043768941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-15.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-16.968719422671313</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-17.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,10 +672,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -659,16 +768,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$6:$AF$6</c:f>
+              <c:f>Поверхность!$B$6:$AI$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15.968719422671311</c:v>
                 </c:pt>
@@ -758,6 +876,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-13.964240043768941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-14.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-16.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,10 +921,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -890,16 +1017,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$7:$AF$7</c:f>
+              <c:f>Поверхность!$B$7:$AI$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-14.968719422671311</c:v>
                 </c:pt>
@@ -989,6 +1125,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-12.964240043768941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-14.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-15.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,10 +1170,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -1121,16 +1266,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$8:$AF$8</c:f>
+              <c:f>Поверхность!$B$8:$AI$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-13.968719422671311</c:v>
                 </c:pt>
@@ -1220,6 +1374,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11.964240043768941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-13.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-14.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,10 +1419,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -1352,16 +1515,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$9:$AF$9</c:f>
+              <c:f>Поверхность!$B$9:$AI$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-12.968719422671311</c:v>
                 </c:pt>
@@ -1451,6 +1623,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-10.964240043768941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-11.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,10 +1668,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -1583,16 +1764,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$10:$AF$10</c:f>
+              <c:f>Поверхность!$B$10:$AI$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-11.968719422671311</c:v>
                 </c:pt>
@@ -1682,6 +1872,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-9.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.966629547095765</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-12.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,10 +1917,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -1814,16 +2013,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$11:$AF$11</c:f>
+              <c:f>Поверхность!$B$11:$AI$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-10.968719422671311</c:v>
                 </c:pt>
@@ -1913,6 +2121,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-8.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10.968719422671311</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-11.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1949,10 +2166,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -2045,16 +2262,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$12:$AF$12</c:f>
+              <c:f>Поверхность!$B$12:$AI$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-9.9687194226713114</c:v>
                 </c:pt>
@@ -2144,6 +2370,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-7.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10.970562748477139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,10 +2415,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -2276,16 +2511,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$13:$AF$13</c:f>
+              <c:f>Поверхность!$B$13:$AI$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-8.9687194226713114</c:v>
                 </c:pt>
@@ -2375,6 +2619,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-6.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,10 +2664,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -2507,16 +2760,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$14:$AF$14</c:f>
+              <c:f>Поверхность!$B$14:$AI$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-7.9687194226713114</c:v>
                 </c:pt>
@@ -2606,6 +2868,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-5.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-8.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,10 +2913,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -2738,16 +3009,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$15:$AF$15</c:f>
+              <c:f>Поверхность!$B$15:$AI$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-6.9687194226713114</c:v>
                 </c:pt>
@@ -2837,6 +3117,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-4.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,10 +3162,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -2969,16 +3258,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$16:$AF$16</c:f>
+              <c:f>Поверхность!$B$16:$AI$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-5.9687194226713114</c:v>
                 </c:pt>
@@ -3068,6 +3366,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-3.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,10 +3411,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -3200,16 +3507,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$17:$AF$17</c:f>
+              <c:f>Поверхность!$B$17:$AI$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-4.9687194226713114</c:v>
                 </c:pt>
@@ -3299,6 +3615,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,10 +3660,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -3431,16 +3756,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$18:$AF$18</c:f>
+              <c:f>Поверхность!$B$18:$AI$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-3.9687194226713114</c:v>
                 </c:pt>
@@ -3530,6 +3864,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1.9642400437689407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,10 +3909,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -3662,16 +4005,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$19:$AF$19</c:f>
+              <c:f>Поверхность!$B$19:$AI$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-2.9687194226713114</c:v>
                 </c:pt>
@@ -3761,6 +4113,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-0.96424004376894068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9666295470957653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3797,10 +4158,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -3893,16 +4254,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$20:$AF$20</c:f>
+              <c:f>Поверхность!$B$20:$AI$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-1.9687194226713114</c:v>
                 </c:pt>
@@ -3992,6 +4362,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.575995623105932E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.96662954709576532</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.9687194226713114</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,10 +4407,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -4124,16 +4503,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$21:$AF$21</c:f>
+              <c:f>Поверхность!$B$21:$AI$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-0.96871942267131139</c:v>
                 </c:pt>
@@ -4223,6 +4611,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3370452904234682E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.96871942267131139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.9705627484771391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,10 +4656,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -4355,16 +4752,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$22:$AF$22</c:f>
+              <c:f>Поверхность!$B$22:$AI$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3.1280577328688608E-2</c:v>
                 </c:pt>
@@ -4454,6 +4860,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1280577328688608E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.97056274847713908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,10 +4905,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -4586,16 +5001,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$23:$AF$23</c:f>
+              <c:f>Поверхность!$B$23:$AI$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0312805773286886</c:v>
                 </c:pt>
@@ -4685,6 +5109,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9437251522860919E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,10 +5154,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -4817,16 +5250,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$24:$AF$24</c:f>
+              <c:f>Поверхность!$B$24:$AI$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2.0312805773286886</c:v>
                 </c:pt>
@@ -4916,6 +5358,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,10 +5401,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -5046,16 +5497,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$25:$AF$25</c:f>
+              <c:f>Поверхность!$B$25:$AI$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>3.0312805773286886</c:v>
                 </c:pt>
@@ -5145,6 +5605,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,10 +5650,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -5277,16 +5746,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$26:$AF$26</c:f>
+              <c:f>Поверхность!$B$26:$AI$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.0312805773286886</c:v>
                 </c:pt>
@@ -5376,6 +5854,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,10 +5899,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -5508,16 +5995,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$27:$AF$27</c:f>
+              <c:f>Поверхность!$B$27:$AI$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5.0312805773286886</c:v>
                 </c:pt>
@@ -5607,6 +6103,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,10 +6148,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -5739,16 +6244,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$28:$AF$28</c:f>
+              <c:f>Поверхность!$B$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>6.0312805773286886</c:v>
                 </c:pt>
@@ -5838,6 +6352,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5874,10 +6397,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -5970,16 +6493,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$29:$AF$29</c:f>
+              <c:f>Поверхность!$B$29:$AI$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>7.0312805773286886</c:v>
                 </c:pt>
@@ -6069,6 +6601,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>9.0357599562310593</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6105,10 +6646,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -6201,16 +6742,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$30:$AF$30</c:f>
+              <c:f>Поверхность!$B$30:$AI$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>8.0312805773286886</c:v>
                 </c:pt>
@@ -6300,6 +6850,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>10.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0333704529042347</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6336,10 +6895,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -6432,16 +6991,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$31:$AF$31</c:f>
+              <c:f>Поверхность!$B$31:$AI$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>9.0312805773286886</c:v>
                 </c:pt>
@@ -6531,6 +7099,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>11.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0312805773286886</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6567,10 +7144,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -6663,16 +7240,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$32:$AF$32</c:f>
+              <c:f>Поверхность!$B$32:$AI$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>10.031280577328689</c:v>
                 </c:pt>
@@ -6762,6 +7348,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>12.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0294372515228609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,10 +7393,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -6894,16 +7489,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$33:$AF$33</c:f>
+              <c:f>Поверхность!$B$33:$AI$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>11.031280577328689</c:v>
                 </c:pt>
@@ -6993,13 +7597,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>13.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{0000001C-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7029,10 +7642,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -7125,16 +7738,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$34:$AF$34</c:f>
+              <c:f>Поверхность!$B$34:$AI$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>12.031280577328689</c:v>
                 </c:pt>
@@ -7224,13 +7846,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>14.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{0000001D-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7260,10 +7891,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -7356,16 +7987,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$35:$AF$35</c:f>
+              <c:f>Поверхность!$B$35:$AI$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>13.031280577328689</c:v>
                 </c:pt>
@@ -7455,13 +8095,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15.035759956231059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{0000001E-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7491,10 +8140,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -7587,16 +8236,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$36:$AF$36</c:f>
+              <c:f>Поверхность!$B$36:$AI$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>14.031280577328689</c:v>
                 </c:pt>
@@ -7686,13 +8344,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>16.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.033370452904235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{0000001F-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7722,10 +8389,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -7818,16 +8485,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$37:$AF$37</c:f>
+              <c:f>Поверхность!$B$37:$AI$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>15.031280577328689</c:v>
                 </c:pt>
@@ -7917,13 +8593,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>17.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.031280577328689</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000020-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7953,10 +8638,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -8049,16 +8734,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$38:$AF$38</c:f>
+              <c:f>Поверхность!$B$38:$AI$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>16.031280577328687</c:v>
                 </c:pt>
@@ -8148,13 +8842,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>18.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000021-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8184,10 +8887,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -8280,16 +8983,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$39:$AF$39</c:f>
+              <c:f>Поверхность!$B$39:$AI$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>17.031280577328687</c:v>
                 </c:pt>
@@ -8379,13 +9091,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>19.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000022-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8415,10 +9136,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -8511,16 +9232,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$40:$AF$40</c:f>
+              <c:f>Поверхность!$B$40:$AI$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>18.031280577328687</c:v>
                 </c:pt>
@@ -8610,13 +9340,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>20.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000023-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8646,10 +9385,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -8742,16 +9481,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$41:$AF$41</c:f>
+              <c:f>Поверхность!$B$41:$AI$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>19.031280577328687</c:v>
                 </c:pt>
@@ -8841,13 +9589,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>21.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000024-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8877,10 +9634,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -8973,16 +9730,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$42:$AF$42</c:f>
+              <c:f>Поверхность!$B$42:$AI$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>20.031280577328687</c:v>
                 </c:pt>
@@ -9072,13 +9838,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>22.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000025-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9108,10 +9883,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -9204,16 +9979,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$43:$AF$43</c:f>
+              <c:f>Поверхность!$B$43:$AI$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>21.031280577328687</c:v>
                 </c:pt>
@@ -9303,13 +10087,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>23.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000026-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9339,10 +10132,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -9435,16 +10228,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$44:$AF$44</c:f>
+              <c:f>Поверхность!$B$44:$AI$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>22.031280577328687</c:v>
                 </c:pt>
@@ -9534,13 +10336,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>24.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000027-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9570,10 +10381,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Поверхность!$B$4:$AF$4</c:f>
+              <c:f>Поверхность!$B$4:$AI$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>-15</c:v>
                 </c:pt>
@@ -9666,16 +10477,25 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Поверхность!$B$45:$AF$45</c:f>
+              <c:f>Поверхность!$B$45:$AI$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>23.031280577328687</c:v>
                 </c:pt>
@@ -9765,13 +10585,22 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>25.035759956231061</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.033370452904236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.031280577328687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.029437251522861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-AA6A-4C1A-802D-BF288C6C561B}"/>
+              <c16:uniqueId val="{00000028-6F99-4E80-8985-2412CAEBD8F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11377,10 +12206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11414,7 +12244,9 @@
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="7">
         <f>C2</f>
         <v>-15</v>
@@ -11551,34 +12383,13 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AJ4" s="7">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK4" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AL4" s="7">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AM4" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AN4" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AO4" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AP4" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -11590,7 +12401,7 @@
         <v>-16.968719422671313</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:R20" si="1">$A5-SQRT(POWER(C$4,2)-2*C$4)</f>
+        <f t="shared" ref="C5:Q20" si="1">$A5-SQRT(POWER(C$4,2)-2*C$4)</f>
         <v>-15.966629547095765</v>
       </c>
       <c r="D5" s="7">
@@ -11718,34 +12529,13 @@
         <f t="shared" ref="AH5:AP20" si="3">$A5-SQRT(POWER(AI$4,2)-2*AI$4)</f>
         <v>-17.970562748477139</v>
       </c>
-      <c r="AJ5" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.972200755611428</v>
-      </c>
-      <c r="AK5" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.973665961010276</v>
-      </c>
-      <c r="AL5" s="7">
-        <f t="shared" si="3"/>
-        <v>-20.974984355438178</v>
-      </c>
-      <c r="AM5" s="7">
-        <f t="shared" si="3"/>
-        <v>-21.976176963403031</v>
-      </c>
-      <c r="AN5" s="7">
-        <f t="shared" si="3"/>
-        <v>-22.977260975835911</v>
-      </c>
-      <c r="AO5" s="7">
-        <f t="shared" si="3"/>
-        <v>-23.978250586152114</v>
-      </c>
-      <c r="AP5" s="7">
-        <f t="shared" si="3"/>
-        <v>-24.979157616563597</v>
-      </c>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -11885,34 +12675,13 @@
         <f t="shared" si="3"/>
         <v>-16.970562748477139</v>
       </c>
-      <c r="AJ6" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.972200755611428</v>
-      </c>
-      <c r="AK6" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.973665961010276</v>
-      </c>
-      <c r="AL6" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.974984355438178</v>
-      </c>
-      <c r="AM6" s="7">
-        <f t="shared" si="3"/>
-        <v>-20.976176963403031</v>
-      </c>
-      <c r="AN6" s="7">
-        <f t="shared" si="3"/>
-        <v>-21.977260975835911</v>
-      </c>
-      <c r="AO6" s="7">
-        <f t="shared" si="3"/>
-        <v>-22.978250586152114</v>
-      </c>
-      <c r="AP6" s="7">
-        <f t="shared" si="3"/>
-        <v>-23.979157616563597</v>
-      </c>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -12052,34 +12821,13 @@
         <f t="shared" si="3"/>
         <v>-15.970562748477139</v>
       </c>
-      <c r="AJ7" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.972200755611428</v>
-      </c>
-      <c r="AK7" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.973665961010276</v>
-      </c>
-      <c r="AL7" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.974984355438178</v>
-      </c>
-      <c r="AM7" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.976176963403031</v>
-      </c>
-      <c r="AN7" s="7">
-        <f t="shared" si="3"/>
-        <v>-20.977260975835911</v>
-      </c>
-      <c r="AO7" s="7">
-        <f t="shared" si="3"/>
-        <v>-21.978250586152114</v>
-      </c>
-      <c r="AP7" s="7">
-        <f t="shared" si="3"/>
-        <v>-22.979157616563597</v>
-      </c>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -12219,34 +12967,13 @@
         <f t="shared" si="3"/>
         <v>-14.970562748477139</v>
       </c>
-      <c r="AJ8" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.972200755611428</v>
-      </c>
-      <c r="AK8" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.973665961010276</v>
-      </c>
-      <c r="AL8" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.974984355438178</v>
-      </c>
-      <c r="AM8" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.976176963403031</v>
-      </c>
-      <c r="AN8" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.977260975835911</v>
-      </c>
-      <c r="AO8" s="7">
-        <f t="shared" si="3"/>
-        <v>-20.978250586152114</v>
-      </c>
-      <c r="AP8" s="7">
-        <f t="shared" si="3"/>
-        <v>-21.979157616563597</v>
-      </c>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -12386,34 +13113,13 @@
         <f t="shared" si="3"/>
         <v>-13.970562748477139</v>
       </c>
-      <c r="AJ9" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.972200755611428</v>
-      </c>
-      <c r="AK9" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.973665961010276</v>
-      </c>
-      <c r="AL9" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.974984355438178</v>
-      </c>
-      <c r="AM9" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.976176963403031</v>
-      </c>
-      <c r="AN9" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.977260975835911</v>
-      </c>
-      <c r="AO9" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.978250586152114</v>
-      </c>
-      <c r="AP9" s="7">
-        <f t="shared" si="3"/>
-        <v>-20.979157616563597</v>
-      </c>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -12553,34 +13259,13 @@
         <f t="shared" si="3"/>
         <v>-12.970562748477139</v>
       </c>
-      <c r="AJ10" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.972200755611428</v>
-      </c>
-      <c r="AK10" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.973665961010276</v>
-      </c>
-      <c r="AL10" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.974984355438178</v>
-      </c>
-      <c r="AM10" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.976176963403031</v>
-      </c>
-      <c r="AN10" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.977260975835911</v>
-      </c>
-      <c r="AO10" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.978250586152114</v>
-      </c>
-      <c r="AP10" s="7">
-        <f t="shared" si="3"/>
-        <v>-19.979157616563597</v>
-      </c>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -12720,34 +13405,13 @@
         <f t="shared" si="3"/>
         <v>-11.970562748477139</v>
       </c>
-      <c r="AJ11" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.972200755611428</v>
-      </c>
-      <c r="AK11" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.973665961010276</v>
-      </c>
-      <c r="AL11" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.974984355438178</v>
-      </c>
-      <c r="AM11" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.976176963403031</v>
-      </c>
-      <c r="AN11" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.977260975835911</v>
-      </c>
-      <c r="AO11" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.978250586152114</v>
-      </c>
-      <c r="AP11" s="7">
-        <f t="shared" si="3"/>
-        <v>-18.979157616563597</v>
-      </c>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -12887,34 +13551,13 @@
         <f t="shared" si="3"/>
         <v>-10.970562748477139</v>
       </c>
-      <c r="AJ12" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.972200755611428</v>
-      </c>
-      <c r="AK12" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.973665961010276</v>
-      </c>
-      <c r="AL12" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.974984355438178</v>
-      </c>
-      <c r="AM12" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.976176963403031</v>
-      </c>
-      <c r="AN12" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.977260975835911</v>
-      </c>
-      <c r="AO12" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.978250586152114</v>
-      </c>
-      <c r="AP12" s="7">
-        <f t="shared" si="3"/>
-        <v>-17.979157616563597</v>
-      </c>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
@@ -13054,34 +13697,13 @@
         <f t="shared" si="3"/>
         <v>-9.9705627484771391</v>
       </c>
-      <c r="AJ13" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.972200755611428</v>
-      </c>
-      <c r="AK13" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.973665961010276</v>
-      </c>
-      <c r="AL13" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.974984355438178</v>
-      </c>
-      <c r="AM13" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.976176963403031</v>
-      </c>
-      <c r="AN13" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.977260975835911</v>
-      </c>
-      <c r="AO13" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.978250586152114</v>
-      </c>
-      <c r="AP13" s="7">
-        <f t="shared" si="3"/>
-        <v>-16.979157616563597</v>
-      </c>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -13221,34 +13843,13 @@
         <f t="shared" si="3"/>
         <v>-8.9705627484771391</v>
       </c>
-      <c r="AJ14" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9722007556114285</v>
-      </c>
-      <c r="AK14" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.973665961010276</v>
-      </c>
-      <c r="AL14" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.974984355438178</v>
-      </c>
-      <c r="AM14" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.976176963403031</v>
-      </c>
-      <c r="AN14" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.977260975835911</v>
-      </c>
-      <c r="AO14" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.978250586152114</v>
-      </c>
-      <c r="AP14" s="7">
-        <f t="shared" si="3"/>
-        <v>-15.979157616563597</v>
-      </c>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -13388,34 +13989,13 @@
         <f t="shared" si="3"/>
         <v>-7.9705627484771391</v>
       </c>
-      <c r="AJ15" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.9722007556114285</v>
-      </c>
-      <c r="AK15" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9736659610102762</v>
-      </c>
-      <c r="AL15" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.974984355438178</v>
-      </c>
-      <c r="AM15" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.976176963403031</v>
-      </c>
-      <c r="AN15" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.977260975835911</v>
-      </c>
-      <c r="AO15" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.978250586152114</v>
-      </c>
-      <c r="AP15" s="7">
-        <f t="shared" si="3"/>
-        <v>-14.979157616563597</v>
-      </c>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -13555,34 +14135,13 @@
         <f t="shared" si="3"/>
         <v>-6.9705627484771391</v>
       </c>
-      <c r="AJ16" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.9722007556114285</v>
-      </c>
-      <c r="AK16" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.9736659610102762</v>
-      </c>
-      <c r="AL16" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9749843554381776</v>
-      </c>
-      <c r="AM16" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.976176963403031</v>
-      </c>
-      <c r="AN16" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.977260975835911</v>
-      </c>
-      <c r="AO16" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.978250586152114</v>
-      </c>
-      <c r="AP16" s="7">
-        <f t="shared" si="3"/>
-        <v>-13.979157616563597</v>
-      </c>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -13722,34 +14281,13 @@
         <f t="shared" si="3"/>
         <v>-5.9705627484771391</v>
       </c>
-      <c r="AJ17" s="7">
-        <f t="shared" si="3"/>
-        <v>-6.9722007556114285</v>
-      </c>
-      <c r="AK17" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.9736659610102762</v>
-      </c>
-      <c r="AL17" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.9749843554381776</v>
-      </c>
-      <c r="AM17" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9761769634030308</v>
-      </c>
-      <c r="AN17" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.977260975835911</v>
-      </c>
-      <c r="AO17" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.978250586152114</v>
-      </c>
-      <c r="AP17" s="7">
-        <f t="shared" si="3"/>
-        <v>-12.979157616563597</v>
-      </c>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -13889,34 +14427,13 @@
         <f t="shared" si="3"/>
         <v>-4.9705627484771391</v>
       </c>
-      <c r="AJ18" s="7">
-        <f t="shared" si="3"/>
-        <v>-5.9722007556114285</v>
-      </c>
-      <c r="AK18" s="7">
-        <f t="shared" si="3"/>
-        <v>-6.9736659610102762</v>
-      </c>
-      <c r="AL18" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.9749843554381776</v>
-      </c>
-      <c r="AM18" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.9761769634030308</v>
-      </c>
-      <c r="AN18" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.977260975835911</v>
-      </c>
-      <c r="AO18" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.978250586152114</v>
-      </c>
-      <c r="AP18" s="7">
-        <f t="shared" si="3"/>
-        <v>-11.979157616563597</v>
-      </c>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -14056,34 +14573,13 @@
         <f t="shared" si="3"/>
         <v>-3.9705627484771391</v>
       </c>
-      <c r="AJ19" s="7">
-        <f t="shared" si="3"/>
-        <v>-4.9722007556114285</v>
-      </c>
-      <c r="AK19" s="7">
-        <f t="shared" si="3"/>
-        <v>-5.9736659610102762</v>
-      </c>
-      <c r="AL19" s="7">
-        <f t="shared" si="3"/>
-        <v>-6.9749843554381776</v>
-      </c>
-      <c r="AM19" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.9761769634030308</v>
-      </c>
-      <c r="AN19" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.977260975835911</v>
-      </c>
-      <c r="AO19" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9782505861521145</v>
-      </c>
-      <c r="AP19" s="7">
-        <f t="shared" si="3"/>
-        <v>-10.979157616563597</v>
-      </c>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
@@ -14223,34 +14719,13 @@
         <f t="shared" si="3"/>
         <v>-2.9705627484771391</v>
       </c>
-      <c r="AJ20" s="7">
-        <f t="shared" si="3"/>
-        <v>-3.9722007556114285</v>
-      </c>
-      <c r="AK20" s="7">
-        <f t="shared" si="3"/>
-        <v>-4.9736659610102762</v>
-      </c>
-      <c r="AL20" s="7">
-        <f t="shared" si="3"/>
-        <v>-5.9749843554381776</v>
-      </c>
-      <c r="AM20" s="7">
-        <f t="shared" si="3"/>
-        <v>-6.9761769634030308</v>
-      </c>
-      <c r="AN20" s="7">
-        <f t="shared" si="3"/>
-        <v>-7.977260975835911</v>
-      </c>
-      <c r="AO20" s="7">
-        <f t="shared" si="3"/>
-        <v>-8.9782505861521145</v>
-      </c>
-      <c r="AP20" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.9791576165635973</v>
-      </c>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -14390,34 +14865,13 @@
         <f t="shared" ref="AH21:AP36" si="8">$A21-SQRT(POWER(AI$4,2)-2*AI$4)</f>
         <v>-1.9705627484771391</v>
       </c>
-      <c r="AJ21" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9722007556114285</v>
-      </c>
-      <c r="AK21" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.9736659610102762</v>
-      </c>
-      <c r="AL21" s="7">
-        <f t="shared" si="8"/>
-        <v>-4.9749843554381776</v>
-      </c>
-      <c r="AM21" s="7">
-        <f t="shared" si="8"/>
-        <v>-5.9761769634030308</v>
-      </c>
-      <c r="AN21" s="7">
-        <f t="shared" si="8"/>
-        <v>-6.977260975835911</v>
-      </c>
-      <c r="AO21" s="7">
-        <f t="shared" si="8"/>
-        <v>-7.9782505861521145</v>
-      </c>
-      <c r="AP21" s="7">
-        <f t="shared" si="8"/>
-        <v>-8.9791576165635973</v>
-      </c>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
@@ -14557,34 +15011,13 @@
         <f t="shared" si="8"/>
         <v>-0.97056274847713908</v>
       </c>
-      <c r="AJ22" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9722007556114285</v>
-      </c>
-      <c r="AK22" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9736659610102762</v>
-      </c>
-      <c r="AL22" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.9749843554381776</v>
-      </c>
-      <c r="AM22" s="7">
-        <f t="shared" si="8"/>
-        <v>-4.9761769634030308</v>
-      </c>
-      <c r="AN22" s="7">
-        <f t="shared" si="8"/>
-        <v>-5.977260975835911</v>
-      </c>
-      <c r="AO22" s="7">
-        <f t="shared" si="8"/>
-        <v>-6.9782505861521145</v>
-      </c>
-      <c r="AP22" s="7">
-        <f t="shared" si="8"/>
-        <v>-7.9791576165635973</v>
-      </c>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
@@ -14724,34 +15157,13 @@
         <f t="shared" si="8"/>
         <v>2.9437251522860919E-2</v>
       </c>
-      <c r="AJ23" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97220075561142849</v>
-      </c>
-      <c r="AK23" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9736659610102762</v>
-      </c>
-      <c r="AL23" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9749843554381776</v>
-      </c>
-      <c r="AM23" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.9761769634030308</v>
-      </c>
-      <c r="AN23" s="7">
-        <f t="shared" si="8"/>
-        <v>-4.977260975835911</v>
-      </c>
-      <c r="AO23" s="7">
-        <f t="shared" si="8"/>
-        <v>-5.9782505861521145</v>
-      </c>
-      <c r="AP23" s="7">
-        <f t="shared" si="8"/>
-        <v>-6.9791576165635973</v>
-      </c>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -14891,34 +15303,13 @@
         <f t="shared" si="8"/>
         <v>1.0294372515228609</v>
       </c>
-      <c r="AJ24" s="7">
-        <f t="shared" si="8"/>
-        <v>2.7799244388571509E-2</v>
-      </c>
-      <c r="AK24" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97366596101027625</v>
-      </c>
-      <c r="AL24" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9749843554381776</v>
-      </c>
-      <c r="AM24" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9761769634030308</v>
-      </c>
-      <c r="AN24" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.977260975835911</v>
-      </c>
-      <c r="AO24" s="7">
-        <f t="shared" si="8"/>
-        <v>-4.9782505861521145</v>
-      </c>
-      <c r="AP24" s="7">
-        <f t="shared" si="8"/>
-        <v>-5.9791576165635973</v>
-      </c>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
@@ -15058,34 +15449,13 @@
         <f t="shared" si="8"/>
         <v>2.0294372515228609</v>
       </c>
-      <c r="AJ25" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0277992443885715</v>
-      </c>
-      <c r="AK25" s="7">
-        <f t="shared" si="8"/>
-        <v>2.6334038989723751E-2</v>
-      </c>
-      <c r="AL25" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97498435543817763</v>
-      </c>
-      <c r="AM25" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9761769634030308</v>
-      </c>
-      <c r="AN25" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.977260975835911</v>
-      </c>
-      <c r="AO25" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.9782505861521145</v>
-      </c>
-      <c r="AP25" s="7">
-        <f t="shared" si="8"/>
-        <v>-4.9791576165635973</v>
-      </c>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
@@ -15225,34 +15595,13 @@
         <f t="shared" si="8"/>
         <v>3.0294372515228609</v>
       </c>
-      <c r="AJ26" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0277992443885715</v>
-      </c>
-      <c r="AK26" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0263340389897238</v>
-      </c>
-      <c r="AL26" s="7">
-        <f t="shared" si="8"/>
-        <v>2.501564456182237E-2</v>
-      </c>
-      <c r="AM26" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97617696340303084</v>
-      </c>
-      <c r="AN26" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.977260975835911</v>
-      </c>
-      <c r="AO26" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9782505861521145</v>
-      </c>
-      <c r="AP26" s="7">
-        <f t="shared" si="8"/>
-        <v>-3.9791576165635973</v>
-      </c>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
@@ -15392,34 +15741,13 @@
         <f t="shared" si="8"/>
         <v>4.0294372515228609</v>
       </c>
-      <c r="AJ27" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0277992443885715</v>
-      </c>
-      <c r="AK27" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0263340389897238</v>
-      </c>
-      <c r="AL27" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0250156445618224</v>
-      </c>
-      <c r="AM27" s="7">
-        <f t="shared" si="8"/>
-        <v>2.382303659696916E-2</v>
-      </c>
-      <c r="AN27" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97726097583591098</v>
-      </c>
-      <c r="AO27" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9782505861521145</v>
-      </c>
-      <c r="AP27" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.9791576165635973</v>
-      </c>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
@@ -15559,34 +15887,13 @@
         <f t="shared" si="8"/>
         <v>5.0294372515228609</v>
       </c>
-      <c r="AJ28" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0277992443885715</v>
-      </c>
-      <c r="AK28" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0263340389897238</v>
-      </c>
-      <c r="AL28" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0250156445618224</v>
-      </c>
-      <c r="AM28" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0238230365969692</v>
-      </c>
-      <c r="AN28" s="7">
-        <f t="shared" si="8"/>
-        <v>2.2739024164089017E-2</v>
-      </c>
-      <c r="AO28" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97825058615211447</v>
-      </c>
-      <c r="AP28" s="7">
-        <f t="shared" si="8"/>
-        <v>-1.9791576165635973</v>
-      </c>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -15726,34 +16033,13 @@
         <f t="shared" si="8"/>
         <v>6.0294372515228609</v>
       </c>
-      <c r="AJ29" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0277992443885715</v>
-      </c>
-      <c r="AK29" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0263340389897238</v>
-      </c>
-      <c r="AL29" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0250156445618224</v>
-      </c>
-      <c r="AM29" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0238230365969692</v>
-      </c>
-      <c r="AN29" s="7">
-        <f t="shared" si="8"/>
-        <v>1.022739024164089</v>
-      </c>
-      <c r="AO29" s="7">
-        <f t="shared" si="8"/>
-        <v>2.1749413847885535E-2</v>
-      </c>
-      <c r="AP29" s="7">
-        <f t="shared" si="8"/>
-        <v>-0.97915761656359734</v>
-      </c>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -15893,34 +16179,13 @@
         <f t="shared" si="8"/>
         <v>7.0294372515228609</v>
       </c>
-      <c r="AJ30" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0277992443885715</v>
-      </c>
-      <c r="AK30" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0263340389897238</v>
-      </c>
-      <c r="AL30" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0250156445618224</v>
-      </c>
-      <c r="AM30" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0238230365969692</v>
-      </c>
-      <c r="AN30" s="7">
-        <f t="shared" si="8"/>
-        <v>2.022739024164089</v>
-      </c>
-      <c r="AO30" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0217494138478855</v>
-      </c>
-      <c r="AP30" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0842383436402656E-2</v>
-      </c>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
@@ -16060,34 +16325,13 @@
         <f t="shared" si="8"/>
         <v>8.0294372515228609</v>
       </c>
-      <c r="AJ31" s="7">
-        <f t="shared" si="8"/>
-        <v>7.0277992443885715</v>
-      </c>
-      <c r="AK31" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0263340389897238</v>
-      </c>
-      <c r="AL31" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0250156445618224</v>
-      </c>
-      <c r="AM31" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0238230365969692</v>
-      </c>
-      <c r="AN31" s="7">
-        <f t="shared" si="8"/>
-        <v>3.022739024164089</v>
-      </c>
-      <c r="AO31" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0217494138478855</v>
-      </c>
-      <c r="AP31" s="7">
-        <f t="shared" si="8"/>
-        <v>1.0208423834364027</v>
-      </c>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
@@ -16227,34 +16471,13 @@
         <f t="shared" si="8"/>
         <v>9.0294372515228609</v>
       </c>
-      <c r="AJ32" s="7">
-        <f t="shared" si="8"/>
-        <v>8.0277992443885715</v>
-      </c>
-      <c r="AK32" s="7">
-        <f t="shared" si="8"/>
-        <v>7.0263340389897238</v>
-      </c>
-      <c r="AL32" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0250156445618224</v>
-      </c>
-      <c r="AM32" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0238230365969692</v>
-      </c>
-      <c r="AN32" s="7">
-        <f t="shared" si="8"/>
-        <v>4.022739024164089</v>
-      </c>
-      <c r="AO32" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0217494138478855</v>
-      </c>
-      <c r="AP32" s="7">
-        <f t="shared" si="8"/>
-        <v>2.0208423834364027</v>
-      </c>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
@@ -16394,34 +16617,13 @@
         <f t="shared" si="8"/>
         <v>10.029437251522861</v>
       </c>
-      <c r="AJ33" s="7">
-        <f t="shared" si="8"/>
-        <v>9.0277992443885715</v>
-      </c>
-      <c r="AK33" s="7">
-        <f t="shared" si="8"/>
-        <v>8.0263340389897238</v>
-      </c>
-      <c r="AL33" s="7">
-        <f t="shared" si="8"/>
-        <v>7.0250156445618224</v>
-      </c>
-      <c r="AM33" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0238230365969692</v>
-      </c>
-      <c r="AN33" s="7">
-        <f t="shared" si="8"/>
-        <v>5.022739024164089</v>
-      </c>
-      <c r="AO33" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0217494138478855</v>
-      </c>
-      <c r="AP33" s="7">
-        <f t="shared" si="8"/>
-        <v>3.0208423834364027</v>
-      </c>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
@@ -16561,34 +16763,13 @@
         <f t="shared" si="8"/>
         <v>11.029437251522861</v>
       </c>
-      <c r="AJ34" s="7">
-        <f t="shared" si="8"/>
-        <v>10.027799244388572</v>
-      </c>
-      <c r="AK34" s="7">
-        <f t="shared" si="8"/>
-        <v>9.0263340389897238</v>
-      </c>
-      <c r="AL34" s="7">
-        <f t="shared" si="8"/>
-        <v>8.0250156445618224</v>
-      </c>
-      <c r="AM34" s="7">
-        <f t="shared" si="8"/>
-        <v>7.0238230365969692</v>
-      </c>
-      <c r="AN34" s="7">
-        <f t="shared" si="8"/>
-        <v>6.022739024164089</v>
-      </c>
-      <c r="AO34" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0217494138478855</v>
-      </c>
-      <c r="AP34" s="7">
-        <f t="shared" si="8"/>
-        <v>4.0208423834364027</v>
-      </c>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -16728,34 +16909,13 @@
         <f t="shared" si="8"/>
         <v>12.029437251522861</v>
       </c>
-      <c r="AJ35" s="7">
-        <f t="shared" si="8"/>
-        <v>11.027799244388572</v>
-      </c>
-      <c r="AK35" s="7">
-        <f t="shared" si="8"/>
-        <v>10.026334038989724</v>
-      </c>
-      <c r="AL35" s="7">
-        <f t="shared" si="8"/>
-        <v>9.0250156445618224</v>
-      </c>
-      <c r="AM35" s="7">
-        <f t="shared" si="8"/>
-        <v>8.0238230365969692</v>
-      </c>
-      <c r="AN35" s="7">
-        <f t="shared" si="8"/>
-        <v>7.022739024164089</v>
-      </c>
-      <c r="AO35" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0217494138478855</v>
-      </c>
-      <c r="AP35" s="7">
-        <f t="shared" si="8"/>
-        <v>5.0208423834364027</v>
-      </c>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
@@ -16828,7 +16988,7 @@
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7">
-        <f t="shared" ref="R36:AH45" si="10">$A36-SQRT(POWER(S$4,2)-2*S$4)</f>
+        <f t="shared" ref="S36:AH45" si="10">$A36-SQRT(POWER(S$4,2)-2*S$4)</f>
         <v>30</v>
       </c>
       <c r="T36" s="7">
@@ -16895,34 +17055,13 @@
         <f t="shared" si="8"/>
         <v>13.029437251522861</v>
       </c>
-      <c r="AJ36" s="7">
-        <f t="shared" si="8"/>
-        <v>12.027799244388572</v>
-      </c>
-      <c r="AK36" s="7">
-        <f t="shared" si="8"/>
-        <v>11.026334038989724</v>
-      </c>
-      <c r="AL36" s="7">
-        <f t="shared" si="8"/>
-        <v>10.025015644561822</v>
-      </c>
-      <c r="AM36" s="7">
-        <f t="shared" si="8"/>
-        <v>9.0238230365969692</v>
-      </c>
-      <c r="AN36" s="7">
-        <f t="shared" si="8"/>
-        <v>8.022739024164089</v>
-      </c>
-      <c r="AO36" s="7">
-        <f t="shared" si="8"/>
-        <v>7.0217494138478855</v>
-      </c>
-      <c r="AP36" s="7">
-        <f t="shared" si="8"/>
-        <v>6.0208423834364027</v>
-      </c>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -17062,34 +17201,13 @@
         <f t="shared" ref="AH37:AP45" si="11">$A37-SQRT(POWER(AI$4,2)-2*AI$4)</f>
         <v>14.029437251522861</v>
       </c>
-      <c r="AJ37" s="7">
-        <f t="shared" si="11"/>
-        <v>13.027799244388572</v>
-      </c>
-      <c r="AK37" s="7">
-        <f t="shared" si="11"/>
-        <v>12.026334038989724</v>
-      </c>
-      <c r="AL37" s="7">
-        <f t="shared" si="11"/>
-        <v>11.025015644561822</v>
-      </c>
-      <c r="AM37" s="7">
-        <f t="shared" si="11"/>
-        <v>10.023823036596969</v>
-      </c>
-      <c r="AN37" s="7">
-        <f t="shared" si="11"/>
-        <v>9.022739024164089</v>
-      </c>
-      <c r="AO37" s="7">
-        <f t="shared" si="11"/>
-        <v>8.0217494138478855</v>
-      </c>
-      <c r="AP37" s="7">
-        <f t="shared" si="11"/>
-        <v>7.0208423834364027</v>
-      </c>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -17229,34 +17347,13 @@
         <f t="shared" si="11"/>
         <v>15.029437251522861</v>
       </c>
-      <c r="AJ38" s="7">
-        <f t="shared" si="11"/>
-        <v>14.027799244388572</v>
-      </c>
-      <c r="AK38" s="7">
-        <f t="shared" si="11"/>
-        <v>13.026334038989724</v>
-      </c>
-      <c r="AL38" s="7">
-        <f t="shared" si="11"/>
-        <v>12.025015644561822</v>
-      </c>
-      <c r="AM38" s="7">
-        <f t="shared" si="11"/>
-        <v>11.023823036596969</v>
-      </c>
-      <c r="AN38" s="7">
-        <f t="shared" si="11"/>
-        <v>10.022739024164089</v>
-      </c>
-      <c r="AO38" s="7">
-        <f t="shared" si="11"/>
-        <v>9.0217494138478855</v>
-      </c>
-      <c r="AP38" s="7">
-        <f t="shared" si="11"/>
-        <v>8.0208423834364027</v>
-      </c>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
@@ -17396,34 +17493,13 @@
         <f t="shared" si="11"/>
         <v>16.029437251522861</v>
       </c>
-      <c r="AJ39" s="7">
-        <f t="shared" si="11"/>
-        <v>15.027799244388572</v>
-      </c>
-      <c r="AK39" s="7">
-        <f t="shared" si="11"/>
-        <v>14.026334038989724</v>
-      </c>
-      <c r="AL39" s="7">
-        <f t="shared" si="11"/>
-        <v>13.025015644561822</v>
-      </c>
-      <c r="AM39" s="7">
-        <f t="shared" si="11"/>
-        <v>12.023823036596969</v>
-      </c>
-      <c r="AN39" s="7">
-        <f t="shared" si="11"/>
-        <v>11.022739024164089</v>
-      </c>
-      <c r="AO39" s="7">
-        <f t="shared" si="11"/>
-        <v>10.021749413847886</v>
-      </c>
-      <c r="AP39" s="7">
-        <f t="shared" si="11"/>
-        <v>9.0208423834364027</v>
-      </c>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
@@ -17563,34 +17639,13 @@
         <f t="shared" si="11"/>
         <v>17.029437251522861</v>
       </c>
-      <c r="AJ40" s="7">
-        <f t="shared" si="11"/>
-        <v>16.027799244388572</v>
-      </c>
-      <c r="AK40" s="7">
-        <f t="shared" si="11"/>
-        <v>15.026334038989724</v>
-      </c>
-      <c r="AL40" s="7">
-        <f t="shared" si="11"/>
-        <v>14.025015644561822</v>
-      </c>
-      <c r="AM40" s="7">
-        <f t="shared" si="11"/>
-        <v>13.023823036596969</v>
-      </c>
-      <c r="AN40" s="7">
-        <f t="shared" si="11"/>
-        <v>12.022739024164089</v>
-      </c>
-      <c r="AO40" s="7">
-        <f t="shared" si="11"/>
-        <v>11.021749413847886</v>
-      </c>
-      <c r="AP40" s="7">
-        <f t="shared" si="11"/>
-        <v>10.020842383436403</v>
-      </c>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
@@ -17730,34 +17785,13 @@
         <f t="shared" si="11"/>
         <v>18.029437251522861</v>
       </c>
-      <c r="AJ41" s="7">
-        <f t="shared" si="11"/>
-        <v>17.027799244388572</v>
-      </c>
-      <c r="AK41" s="7">
-        <f t="shared" si="11"/>
-        <v>16.026334038989724</v>
-      </c>
-      <c r="AL41" s="7">
-        <f t="shared" si="11"/>
-        <v>15.025015644561822</v>
-      </c>
-      <c r="AM41" s="7">
-        <f t="shared" si="11"/>
-        <v>14.023823036596969</v>
-      </c>
-      <c r="AN41" s="7">
-        <f t="shared" si="11"/>
-        <v>13.022739024164089</v>
-      </c>
-      <c r="AO41" s="7">
-        <f t="shared" si="11"/>
-        <v>12.021749413847886</v>
-      </c>
-      <c r="AP41" s="7">
-        <f t="shared" si="11"/>
-        <v>11.020842383436403</v>
-      </c>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
@@ -17897,34 +17931,13 @@
         <f t="shared" si="11"/>
         <v>19.029437251522861</v>
       </c>
-      <c r="AJ42" s="7">
-        <f t="shared" si="11"/>
-        <v>18.027799244388572</v>
-      </c>
-      <c r="AK42" s="7">
-        <f t="shared" si="11"/>
-        <v>17.026334038989724</v>
-      </c>
-      <c r="AL42" s="7">
-        <f t="shared" si="11"/>
-        <v>16.025015644561822</v>
-      </c>
-      <c r="AM42" s="7">
-        <f t="shared" si="11"/>
-        <v>15.023823036596969</v>
-      </c>
-      <c r="AN42" s="7">
-        <f t="shared" si="11"/>
-        <v>14.022739024164089</v>
-      </c>
-      <c r="AO42" s="7">
-        <f t="shared" si="11"/>
-        <v>13.021749413847886</v>
-      </c>
-      <c r="AP42" s="7">
-        <f t="shared" si="11"/>
-        <v>12.020842383436403</v>
-      </c>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
@@ -18064,34 +18077,13 @@
         <f t="shared" si="11"/>
         <v>20.029437251522861</v>
       </c>
-      <c r="AJ43" s="7">
-        <f t="shared" si="11"/>
-        <v>19.027799244388572</v>
-      </c>
-      <c r="AK43" s="7">
-        <f t="shared" si="11"/>
-        <v>18.026334038989724</v>
-      </c>
-      <c r="AL43" s="7">
-        <f t="shared" si="11"/>
-        <v>17.025015644561822</v>
-      </c>
-      <c r="AM43" s="7">
-        <f t="shared" si="11"/>
-        <v>16.023823036596969</v>
-      </c>
-      <c r="AN43" s="7">
-        <f t="shared" si="11"/>
-        <v>15.022739024164089</v>
-      </c>
-      <c r="AO43" s="7">
-        <f t="shared" si="11"/>
-        <v>14.021749413847886</v>
-      </c>
-      <c r="AP43" s="7">
-        <f t="shared" si="11"/>
-        <v>13.020842383436403</v>
-      </c>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
@@ -18231,34 +18223,13 @@
         <f t="shared" si="11"/>
         <v>21.029437251522861</v>
       </c>
-      <c r="AJ44" s="7">
-        <f t="shared" si="11"/>
-        <v>20.027799244388572</v>
-      </c>
-      <c r="AK44" s="7">
-        <f t="shared" si="11"/>
-        <v>19.026334038989724</v>
-      </c>
-      <c r="AL44" s="7">
-        <f t="shared" si="11"/>
-        <v>18.025015644561822</v>
-      </c>
-      <c r="AM44" s="7">
-        <f t="shared" si="11"/>
-        <v>17.023823036596969</v>
-      </c>
-      <c r="AN44" s="7">
-        <f t="shared" si="11"/>
-        <v>16.022739024164089</v>
-      </c>
-      <c r="AO44" s="7">
-        <f t="shared" si="11"/>
-        <v>15.021749413847886</v>
-      </c>
-      <c r="AP44" s="7">
-        <f t="shared" si="11"/>
-        <v>14.020842383436403</v>
-      </c>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
@@ -18398,34 +18369,13 @@
         <f t="shared" si="11"/>
         <v>22.029437251522861</v>
       </c>
-      <c r="AJ45" s="7">
-        <f t="shared" si="11"/>
-        <v>21.027799244388572</v>
-      </c>
-      <c r="AK45" s="7">
-        <f t="shared" si="11"/>
-        <v>20.026334038989724</v>
-      </c>
-      <c r="AL45" s="7">
-        <f t="shared" si="11"/>
-        <v>19.025015644561822</v>
-      </c>
-      <c r="AM45" s="7">
-        <f t="shared" si="11"/>
-        <v>18.023823036596969</v>
-      </c>
-      <c r="AN45" s="7">
-        <f t="shared" si="11"/>
-        <v>17.022739024164089</v>
-      </c>
-      <c r="AO45" s="7">
-        <f t="shared" si="11"/>
-        <v>16.021749413847886</v>
-      </c>
-      <c r="AP45" s="7">
-        <f t="shared" si="11"/>
-        <v>15.020842383436403</v>
-      </c>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18436,6 +18386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18498,37 +18449,37 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <f>2*C2^3+2*C2^2-9*C2+3</f>
+        <f t="shared" ref="F2:H8" si="0">2*C2^3+2*C2^2-9*C2+3</f>
         <v>3</v>
       </c>
       <c r="G2" s="1">
-        <f>2*D2^3+2*D2^2-9*D2+3</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="H2" s="4">
-        <f>2*E2^3+2*E2^2-9*E2+3</f>
+        <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
       <c r="I2" s="1">
-        <f>F2*H2</f>
+        <f t="shared" ref="I2:I8" si="1">F2*H2</f>
         <v>-2.25</v>
       </c>
       <c r="J2" s="1">
-        <f>G2*H2</f>
+        <f t="shared" ref="J2:J8" si="2">G2*H2</f>
         <v>1.5</v>
       </c>
       <c r="K2" s="1">
-        <f>ABS(C2-D2)/2</f>
+        <f t="shared" ref="K2:K8" si="3">ABS(C2-D2)/2</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
-        <f>IF(I2&lt;0,C2,E2)</f>
+        <f t="shared" ref="C3:C8" si="4">IF(I2&lt;0,C2,E2)</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(J2&lt;0,D2,E2)</f>
+        <f t="shared" ref="D3:D8" si="5">IF(J2&lt;0,D2,E2)</f>
         <v>0.5</v>
       </c>
       <c r="E3" s="1">
@@ -18536,217 +18487,217 @@
         <v>0.25</v>
       </c>
       <c r="F3" s="1">
-        <f>2*C3^3+2*C3^2-9*C3+3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <f>2*D3^3+2*D3^2-9*D3+3</f>
+        <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
       <c r="H3" s="4">
-        <f>2*E3^3+2*E3^2-9*E3+3</f>
+        <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
       <c r="I3" s="1">
-        <f>F3*H3</f>
+        <f t="shared" si="1"/>
         <v>2.71875</v>
       </c>
       <c r="J3" s="1">
-        <f>G3*H3</f>
+        <f t="shared" si="2"/>
         <v>-0.6796875</v>
       </c>
       <c r="K3" s="1">
-        <f>ABS(C3-D3)/2</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
-        <f>IF(I3&lt;0,C3,E3)</f>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(J3&lt;0,D3,E3)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E8" si="0">(D4+C4)/2</f>
+        <f t="shared" ref="E4:E8" si="6">(D4+C4)/2</f>
         <v>0.375</v>
       </c>
       <c r="F4" s="1">
-        <f>2*C4^3+2*C4^2-9*C4+3</f>
+        <f t="shared" si="0"/>
         <v>0.90625</v>
       </c>
       <c r="G4" s="1">
-        <f>2*D4^3+2*D4^2-9*D4+3</f>
+        <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
       <c r="H4" s="4">
-        <f>2*E4^3+2*E4^2-9*E4+3</f>
+        <f t="shared" si="0"/>
         <v>1.171875E-2</v>
       </c>
       <c r="I4" s="1">
-        <f>F4*H4</f>
+        <f t="shared" si="1"/>
         <v>1.06201171875E-2</v>
       </c>
       <c r="J4" s="1">
-        <f>G4*H4</f>
+        <f t="shared" si="2"/>
         <v>-8.7890625E-3</v>
       </c>
       <c r="K4" s="1">
-        <f>ABS(C4-D4)/2</f>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
-        <f>IF(I4&lt;0,C4,E4)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="D5" s="1">
-        <f>IF(J4&lt;0,D4,E4)</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.4375</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
-      </c>
-      <c r="F5" s="1">
-        <f>2*C5^3+2*C5^2-9*C5+3</f>
         <v>1.171875E-2</v>
       </c>
       <c r="G5" s="1">
-        <f>2*D5^3+2*D5^2-9*D5+3</f>
+        <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
       <c r="H5" s="4">
-        <f>2*E5^3+2*E5^2-9*E5+3</f>
+        <f t="shared" si="0"/>
         <v>-0.38720703125</v>
       </c>
       <c r="I5" s="1">
-        <f>F5*H5</f>
+        <f t="shared" si="1"/>
         <v>-4.5375823974609375E-3</v>
       </c>
       <c r="J5" s="1">
-        <f>G5*H5</f>
+        <f t="shared" si="2"/>
         <v>0.2904052734375</v>
       </c>
       <c r="K5" s="1">
-        <f>ABS(C5-D5)/2</f>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <f>IF(I5&lt;0,C5,E5)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="D6" s="1">
-        <f>IF(J5&lt;0,D5,E5)</f>
+        <f t="shared" si="5"/>
         <v>0.4375</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.40625</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.40625</v>
-      </c>
-      <c r="F6" s="1">
-        <f>2*C6^3+2*C6^2-9*C6+3</f>
         <v>1.171875E-2</v>
       </c>
       <c r="G6" s="1">
-        <f>2*D6^3+2*D6^2-9*D6+3</f>
+        <f t="shared" si="0"/>
         <v>-0.38720703125</v>
       </c>
       <c r="H6" s="4">
-        <f>2*E6^3+2*E6^2-9*E6+3</f>
+        <f t="shared" si="0"/>
         <v>-0.19207763671875</v>
       </c>
       <c r="I6" s="1">
-        <f>F6*H6</f>
+        <f t="shared" si="1"/>
         <v>-2.2509098052978516E-3</v>
       </c>
       <c r="J6" s="1">
-        <f>G6*H6</f>
+        <f t="shared" si="2"/>
         <v>7.4373811483383179E-2</v>
       </c>
       <c r="K6" s="1">
-        <f>ABS(C6-D6)/2</f>
+        <f t="shared" si="3"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <f>IF(I6&lt;0,C6,E6)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="D7" s="1">
-        <f>IF(J6&lt;0,D6,E6)</f>
+        <f t="shared" si="5"/>
         <v>0.40625</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.390625</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.390625</v>
-      </c>
-      <c r="F7" s="1">
-        <f>2*C7^3+2*C7^2-9*C7+3</f>
         <v>1.171875E-2</v>
       </c>
       <c r="G7" s="1">
-        <f>2*D7^3+2*D7^2-9*D7+3</f>
+        <f t="shared" si="0"/>
         <v>-0.19207763671875</v>
       </c>
       <c r="H7" s="4">
-        <f>2*E7^3+2*E7^2-9*E7+3</f>
+        <f t="shared" si="0"/>
         <v>-9.123992919921875E-2</v>
       </c>
       <c r="I7" s="1">
-        <f>F7*H7</f>
+        <f t="shared" si="1"/>
         <v>-1.0692179203033447E-3</v>
       </c>
       <c r="J7" s="1">
-        <f>G7*H7</f>
+        <f t="shared" si="2"/>
         <v>1.752514997497201E-2</v>
       </c>
       <c r="K7" s="1">
-        <f>ABS(C7-D7)/2</f>
+        <f t="shared" si="3"/>
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <f>IF(I7&lt;0,C7,E7)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="D8" s="1">
-        <f>IF(J7&lt;0,D7,E7)</f>
+        <f t="shared" si="5"/>
         <v>0.390625</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.3828125</v>
-      </c>
-      <c r="F8" s="1">
-        <f>2*C8^3+2*C8^2-9*C8+3</f>
         <v>1.171875E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>2*D8^3+2*D8^2-9*D8+3</f>
+        <f t="shared" si="0"/>
         <v>-9.123992919921875E-2</v>
       </c>
       <c r="H8" s="4">
-        <f>2*E8^3+2*E8^2-9*E8+3</f>
+        <f t="shared" si="0"/>
         <v>-4.0022850036621094E-2</v>
       </c>
       <c r="I8" s="1">
-        <f>F8*H8</f>
+        <f t="shared" si="1"/>
         <v>-4.6901777386665344E-4</v>
       </c>
       <c r="J8" s="1">
-        <f>G8*H8</f>
+        <f t="shared" si="2"/>
         <v>3.6516820036922581E-3</v>
       </c>
       <c r="K8" s="1">
-        <f>ABS(C8-D8)/2</f>
+        <f t="shared" si="3"/>
         <v>7.8125E-3</v>
       </c>
     </row>
@@ -18772,7 +18723,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D14" si="1">2*C13^3+2*C13^2-9*C13+3</f>
+        <f t="shared" ref="D13:D14" si="7">2*C13^3+2*C13^2-9*C13+3</f>
         <v>-5.4416749999999681E-2</v>
       </c>
     </row>
@@ -18781,7 +18732,7 @@
         <v>0.390625</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.123992919921875E-2</v>
       </c>
     </row>
@@ -18795,4 +18746,72 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>